--- a/Pos_data_stat/position/rest-part1.xlsx
+++ b/Pos_data_stat/position/rest-part1.xlsx
@@ -460,10 +460,10 @@
         <v>6418</v>
       </c>
       <c r="B2" t="n">
-        <v>1080</v>
+        <v>1081</v>
       </c>
       <c r="C2" t="n">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="D2" t="n">
         <v>42</v>
